--- a/results/xlsx_reports/Griewank_RO.xlsx
+++ b/results/xlsx_reports/Griewank_RO.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>D=2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>D=10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D=2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.1116728555319529</v>
+      </c>
+      <c r="C2" t="n">
         <v>8.268971962231211</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1116728555319529</v>
       </c>
       <c r="D2" t="n">
         <v>137.969626665836</v>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.5211197765216534</v>
+      </c>
+      <c r="C3" t="n">
         <v>16.1628242335557</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5211197765216534</v>
       </c>
       <c r="D3" t="n">
         <v>203.2871968345546</v>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.9405718052478338</v>
+      </c>
+      <c r="C4" t="n">
         <v>22.03762292414405</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9405718052478338</v>
       </c>
       <c r="D4" t="n">
         <v>252.3477838800313</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.2370143622790694</v>
+      </c>
+      <c r="C5" t="n">
         <v>3.350518554398345</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2370143622790694</v>
       </c>
       <c r="D5" t="n">
         <v>34.54504847790567</v>
